--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
   <si>
     <t>Sezione</t>
   </si>
@@ -80,6 +80,33 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Dati generali</t>
+  </si>
+  <si>
+    <t>Data richiesta trascrizione</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita</t>
+  </si>
+  <si>
+    <t>dataComunicazione</t>
+  </si>
+  <si>
+    <t>Riassunto</t>
+  </si>
+  <si>
+    <t>testoLibero</t>
+  </si>
+  <si>
+    <t>Nome Istituto minore abbandonato</t>
+  </si>
+  <si>
+    <t>evento.trascrizioneNascita.istituto</t>
+  </si>
+  <si>
+    <t>nomeEnte</t>
+  </si>
+  <si>
     <t>Minore ritrovato</t>
   </si>
   <si>
@@ -126,39 +153,6 @@
   </si>
   <si>
     <t>idComuneNascita</t>
-  </si>
-  <si>
-    <t>Dati della trascrizione</t>
-  </si>
-  <si>
-    <t>Tipo richiesta</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita</t>
-  </si>
-  <si>
-    <t>tipoDichiarazione</t>
-  </si>
-  <si>
-    <t>Data richiesta trascrizione</t>
-  </si>
-  <si>
-    <t>dataComunicazione</t>
-  </si>
-  <si>
-    <t>Riassunto</t>
-  </si>
-  <si>
-    <t>testoLibero</t>
-  </si>
-  <si>
-    <t>Nome Istituto minore abbandonato</t>
-  </si>
-  <si>
-    <t>evento.trascrizioneNascita.istituto</t>
-  </si>
-  <si>
-    <t>nomeEnte</t>
   </si>
 </sst>
 </file>
@@ -217,13 +211,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="15.9765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="38.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.74609375" customWidth="true" bestFit="true"/>
@@ -442,10 +436,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>9</v>
@@ -453,19 +447,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>9</v>
@@ -473,19 +467,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -493,19 +487,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>9</v>
@@ -513,19 +507,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -533,19 +527,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -553,19 +547,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
@@ -573,41 +567,21 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -211,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -223,6 +229,7 @@
     <col min="4" max="4" width="31.74609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="19.76171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -244,45 +251,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -304,285 +320,330 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -149,9 +149,24 @@
     <t>idStatoNascita</t>
   </si>
   <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
     <t>Provincia di nascita</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
     <t>siglaProvinciaNascita</t>
   </si>
   <si>
@@ -159,6 +174,12 @@
   </si>
   <si>
     <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
   </si>
 </sst>
 </file>
@@ -217,7 +238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -227,9 +248,9 @@
     <col min="2" max="2" width="38.73828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="31.74609375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="19.76171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="20.26171875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -631,18 +652,87 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Comunicazione al Tribunale dei minorenni</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>105-bis</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Comunicazione al Tribunale dei minorenni</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>105-bis</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -342,398 +345,398 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
+++ b/docs/Mapping_casi_uso/trascrizioni/Trascr_004.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>Sezione</t>
   </si>
@@ -134,6 +134,15 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -159,9 +168,6 @@
   </si>
   <si>
     <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
   <si>
     <t>idProvinciaNascita</t>
@@ -241,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -563,13 +569,13 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -583,7 +589,7 @@
         <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -592,7 +598,7 @@
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
@@ -606,7 +612,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -615,7 +621,7 @@
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
@@ -629,7 +635,7 @@
         <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -638,7 +644,7 @@
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
@@ -652,10 +658,10 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>36</v>
@@ -678,7 +684,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>36</v>
@@ -701,7 +707,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>36</v>
@@ -724,7 +730,7 @@
         <v>55</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>36</v>
@@ -736,6 +742,29 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
